--- a/src/test/resources/user.xlsx
+++ b/src/test/resources/user.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAF2E8EF-090F-4150-92D8-3FD7EF796A97}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{216DB4D2-F229-47D6-874E-1EC403EDD74E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="学生名单" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t>用户名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -55,6 +55,14 @@
   </si>
   <si>
     <t>生日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018N11月11日</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -98,10 +106,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="31" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -410,18 +419,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -434,8 +444,11 @@
       <c r="D1" t="s">
         <v>8</v>
       </c>
+      <c r="E1" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -448,8 +461,11 @@
       <c r="D2" s="1">
         <v>43105</v>
       </c>
+      <c r="E2" s="2" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -462,8 +478,11 @@
       <c r="D3" s="1">
         <v>43106</v>
       </c>
+      <c r="E3" s="3">
+        <v>43791</v>
+      </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -475,6 +494,9 @@
       </c>
       <c r="D4" s="1">
         <v>43107</v>
+      </c>
+      <c r="E4" s="3">
+        <v>43791</v>
       </c>
     </row>
   </sheetData>
